--- a/seronetTemplates/20211202_immport-template-mapper/docs/ImmPortTemplates/excel-templates/subjectHumans.xlsx
+++ b/seronetTemplates/20211202_immport-template-mapper/docs/ImmPortTemplates/excel-templates/subjectHumans.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/purkayasthaa/Desktop/ExpandDataCommons/SeroNet/projects/20211202_immport-template-mapper/docs/ImmPortTemplates/excel-templates/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/liualg/Documents/GitHub/SeroNet/seronetTemplates/20211202_immport-template-mapper/docs/ImmPortTemplates/excel-templates/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A38DEF99-4437-4B48-AC6C-FB78B1D29332}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05172560-E661-B248-9BC2-24C31D106C03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1680" yWindow="700" windowWidth="28800" windowHeight="16740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11400" yWindow="700" windowWidth="19080" windowHeight="20040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="subjectHumans.txt" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,18 @@
     <definedName name="lookuprace1082">lookup!$A$521:$A$529</definedName>
     <definedName name="lookupsubject_location1080">lookup!$A$256:$A$515</definedName>
   </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -39,9 +50,7 @@
   </authors>
   <commentList>
     <comment ref="A3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
-      <text>
-        <t/>
-      </text>
+      <text/>
     </comment>
     <comment ref="B3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
@@ -61,10 +70,9 @@
         <r>
           <rPr>
             <sz val="11"/>
-            <color indexed="8"/>
+            <color rgb="FF000000"/>
             <rFont val="Calibri"/>
             <family val="2"/>
-            <scheme val="minor"/>
           </rPr>
           <t>Please enter either a study arm or cohort user defined ID or ImmPort accession. When subjects are initially uploaded to ImmPort, they may be assigned to a single study's arm.</t>
         </r>
@@ -75,10 +83,9 @@
         <r>
           <rPr>
             <sz val="11"/>
-            <color indexed="8"/>
+            <color rgb="FF000000"/>
             <rFont val="Calibri"/>
             <family val="2"/>
-            <scheme val="minor"/>
           </rPr>
           <t>Please choose from the drop down list.</t>
         </r>
@@ -341,7 +348,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="547" uniqueCount="534">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="544" uniqueCount="534">
   <si>
     <t>subjecthumans</t>
   </si>
@@ -1949,7 +1956,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -1969,13 +1976,6 @@
       <color indexed="8"/>
       <name val="Arial"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -2399,7 +2399,7 @@
   <dimension ref="A1:V200"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2488,7 +2488,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:22" ht="27" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -2501,9 +2501,7 @@
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
       <c r="L4" s="1"/>
-      <c r="M4" s="1" t="s">
-        <v>531</v>
-      </c>
+      <c r="M4" s="1"/>
       <c r="N4" s="1"/>
       <c r="O4" s="1"/>
       <c r="P4" s="1"/>
@@ -2514,7 +2512,7 @@
       <c r="U4" s="1"/>
       <c r="V4" s="1"/>
     </row>
-    <row r="5" spans="1:22" ht="27" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
@@ -2534,9 +2532,7 @@
       <c r="Q5" s="1"/>
       <c r="R5" s="1"/>
       <c r="S5" s="1"/>
-      <c r="T5" s="1" t="s">
-        <v>120</v>
-      </c>
+      <c r="T5" s="1"/>
       <c r="U5" s="1"/>
       <c r="V5" s="1"/>
     </row>
@@ -2808,9 +2804,7 @@
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
-      <c r="D17" s="1" t="s">
-        <v>109</v>
-      </c>
+      <c r="D17" s="1"/>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
